--- a/data/pca/factorExposure/factorExposure_2011-03-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.005993458352526702</v>
+        <v>-0.01152264145363695</v>
       </c>
       <c r="C2">
-        <v>-0.0110865762383684</v>
+        <v>-0.0001560775587690462</v>
       </c>
       <c r="D2">
-        <v>-0.04377461351168051</v>
+        <v>-0.00431612332687756</v>
       </c>
       <c r="E2">
-        <v>-0.00204026756324336</v>
+        <v>0.01800488462049241</v>
       </c>
       <c r="F2">
-        <v>0.006919211885665486</v>
+        <v>0.02804766383027609</v>
       </c>
       <c r="G2">
-        <v>0.02662268816808785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.006125702073057218</v>
+      </c>
+      <c r="H2">
+        <v>0.01007174541852497</v>
+      </c>
+      <c r="I2">
+        <v>-0.04661024156378862</v>
+      </c>
+      <c r="J2">
+        <v>-0.05169994430530622</v>
+      </c>
+      <c r="K2">
+        <v>-0.004581234250834018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.103757400821065</v>
+        <v>-0.1163259125773625</v>
       </c>
       <c r="C4">
-        <v>-0.02862802356970594</v>
+        <v>0.05954098332761</v>
       </c>
       <c r="D4">
-        <v>-0.046144453903945</v>
+        <v>0.005619369648285326</v>
       </c>
       <c r="E4">
-        <v>-0.05946163003094561</v>
+        <v>0.01003378078298977</v>
       </c>
       <c r="F4">
-        <v>0.03856347085798863</v>
+        <v>0.02028061744823718</v>
       </c>
       <c r="G4">
-        <v>0.0325363107780129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.07845196166620948</v>
+      </c>
+      <c r="H4">
+        <v>0.1347552319530898</v>
+      </c>
+      <c r="I4">
+        <v>-0.01229034602486433</v>
+      </c>
+      <c r="J4">
+        <v>0.04094435943135168</v>
+      </c>
+      <c r="K4">
+        <v>-0.01595564365426836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1280764949772856</v>
+        <v>-0.1242330026997447</v>
       </c>
       <c r="C6">
-        <v>-0.02665233570878801</v>
+        <v>0.01232360959024172</v>
       </c>
       <c r="D6">
-        <v>-0.02611953382931017</v>
+        <v>-0.008488517148939098</v>
       </c>
       <c r="E6">
-        <v>0.00795196078045686</v>
+        <v>-0.0245171510237838</v>
       </c>
       <c r="F6">
-        <v>-0.153127369602546</v>
+        <v>0.006541263517210756</v>
       </c>
       <c r="G6">
-        <v>-0.1310918369714519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.07582951001158285</v>
+      </c>
+      <c r="H6">
+        <v>0.04263692864380864</v>
+      </c>
+      <c r="I6">
+        <v>0.219222879258844</v>
+      </c>
+      <c r="J6">
+        <v>0.3391004244815981</v>
+      </c>
+      <c r="K6">
+        <v>0.1915967902482252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09135525020768438</v>
+        <v>-0.07668186006207796</v>
       </c>
       <c r="C7">
-        <v>-0.04094616874809758</v>
+        <v>0.05856947884649635</v>
       </c>
       <c r="D7">
-        <v>-0.04040223286284468</v>
+        <v>-0.0305767394483252</v>
       </c>
       <c r="E7">
-        <v>-0.02475833988507593</v>
+        <v>0.01933976974395615</v>
       </c>
       <c r="F7">
-        <v>-0.01980557719462617</v>
+        <v>0.04352348125651945</v>
       </c>
       <c r="G7">
-        <v>0.02407503585311883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0261378422223503</v>
+      </c>
+      <c r="H7">
+        <v>0.04134743198443741</v>
+      </c>
+      <c r="I7">
+        <v>0.008790231245263654</v>
+      </c>
+      <c r="J7">
+        <v>0.001561716383828379</v>
+      </c>
+      <c r="K7">
+        <v>-0.1001811021802105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04282871296391749</v>
+        <v>-0.0527900801773403</v>
       </c>
       <c r="C8">
-        <v>0.02240441355054977</v>
+        <v>0.01261214187671238</v>
       </c>
       <c r="D8">
-        <v>-0.0851453463667613</v>
+        <v>-0.01372967042974393</v>
       </c>
       <c r="E8">
-        <v>-0.08887801552659272</v>
+        <v>0.009134822731505012</v>
       </c>
       <c r="F8">
-        <v>0.02684878578708856</v>
+        <v>0.01231445442392471</v>
       </c>
       <c r="G8">
-        <v>0.1253099877006434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.09862614545855761</v>
+      </c>
+      <c r="H8">
+        <v>0.105351549691552</v>
+      </c>
+      <c r="I8">
+        <v>-0.009766544875607483</v>
+      </c>
+      <c r="J8">
+        <v>0.03845513101584167</v>
+      </c>
+      <c r="K8">
+        <v>-0.02343836401570373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.09422359895324715</v>
+        <v>-0.08698810226182455</v>
       </c>
       <c r="C9">
-        <v>-0.03758888089537844</v>
+        <v>0.05368716386060696</v>
       </c>
       <c r="D9">
-        <v>-0.03688766749496858</v>
+        <v>-0.005072399302254454</v>
       </c>
       <c r="E9">
-        <v>-0.04735930142656592</v>
+        <v>0.01683992271440704</v>
       </c>
       <c r="F9">
-        <v>0.02586273011848071</v>
+        <v>0.01234449254021995</v>
       </c>
       <c r="G9">
-        <v>0.07056142086248218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.07449371243078283</v>
+      </c>
+      <c r="H9">
+        <v>0.1115395618981806</v>
+      </c>
+      <c r="I9">
+        <v>0.01089346040781652</v>
+      </c>
+      <c r="J9">
+        <v>0.01357474145508136</v>
+      </c>
+      <c r="K9">
+        <v>0.00431159703691072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03891126964656613</v>
+        <v>-0.0898986059231297</v>
       </c>
       <c r="C10">
-        <v>0.1595747674532347</v>
+        <v>-0.176230921968883</v>
       </c>
       <c r="D10">
-        <v>-0.09727450721479866</v>
+        <v>0.0354942243710828</v>
       </c>
       <c r="E10">
-        <v>-0.02564322733421761</v>
+        <v>0.02561045334446612</v>
       </c>
       <c r="F10">
-        <v>-0.03528592588496251</v>
+        <v>0.05336732383740992</v>
       </c>
       <c r="G10">
-        <v>0.003143177603497568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>8.353870200836935e-05</v>
+      </c>
+      <c r="H10">
+        <v>-0.004471561735100222</v>
+      </c>
+      <c r="I10">
+        <v>0.01608951704389738</v>
+      </c>
+      <c r="J10">
+        <v>0.04025375185151734</v>
+      </c>
+      <c r="K10">
+        <v>-0.04647026005309098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.0767085520971094</v>
+        <v>-0.07756668987411901</v>
       </c>
       <c r="C11">
-        <v>-0.06075703140157163</v>
+        <v>0.06140944808713951</v>
       </c>
       <c r="D11">
-        <v>-0.009796728900385467</v>
+        <v>-0.02377984917620033</v>
       </c>
       <c r="E11">
-        <v>0.007428042786878206</v>
+        <v>0.02446190779751264</v>
       </c>
       <c r="F11">
-        <v>0.02217847019340965</v>
+        <v>-0.01459907600548824</v>
       </c>
       <c r="G11">
-        <v>0.1599434884405177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.08413613745120929</v>
+      </c>
+      <c r="H11">
+        <v>0.1070188494101925</v>
+      </c>
+      <c r="I11">
+        <v>-0.002302232713329993</v>
+      </c>
+      <c r="J11">
+        <v>-0.101143886677507</v>
+      </c>
+      <c r="K11">
+        <v>-0.0009391119407330348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07268632928635524</v>
+        <v>-0.07785754375077154</v>
       </c>
       <c r="C12">
-        <v>-0.03797503092792591</v>
+        <v>0.06698796696212012</v>
       </c>
       <c r="D12">
-        <v>-0.003792979898467563</v>
+        <v>-0.0319217689958799</v>
       </c>
       <c r="E12">
-        <v>-0.03134789860114295</v>
+        <v>0.04975128157729855</v>
       </c>
       <c r="F12">
-        <v>0.01125675499346766</v>
+        <v>-0.01923838918072955</v>
       </c>
       <c r="G12">
-        <v>0.1482583643505527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.1040938610670832</v>
+      </c>
+      <c r="H12">
+        <v>0.08927576477482506</v>
+      </c>
+      <c r="I12">
+        <v>0.02106967664214087</v>
+      </c>
+      <c r="J12">
+        <v>-0.09877186330536775</v>
+      </c>
+      <c r="K12">
+        <v>0.008013869455429949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06291102121416547</v>
+        <v>-0.04115030180745633</v>
       </c>
       <c r="C13">
-        <v>-0.002290090627295757</v>
+        <v>0.02499841241747285</v>
       </c>
       <c r="D13">
-        <v>-0.01158941128586744</v>
+        <v>-0.009919691854074002</v>
       </c>
       <c r="E13">
-        <v>-0.02115665003132565</v>
+        <v>-0.006666153005139198</v>
       </c>
       <c r="F13">
-        <v>0.044998877132204</v>
+        <v>0.02169610211954058</v>
       </c>
       <c r="G13">
-        <v>0.05120543636019443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04565714006440275</v>
+      </c>
+      <c r="H13">
+        <v>0.04354097544083493</v>
+      </c>
+      <c r="I13">
+        <v>0.02856055843102282</v>
+      </c>
+      <c r="J13">
+        <v>0.04160740193863136</v>
+      </c>
+      <c r="K13">
+        <v>-0.01823213341198544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05344799830861889</v>
+        <v>-0.04427793142170461</v>
       </c>
       <c r="C14">
-        <v>-0.005553996597839238</v>
+        <v>0.0202046082020241</v>
       </c>
       <c r="D14">
-        <v>-0.03333280916678458</v>
+        <v>0.009714725668903581</v>
       </c>
       <c r="E14">
-        <v>-0.02570215435255572</v>
+        <v>0.01629947893288693</v>
       </c>
       <c r="F14">
-        <v>0.01228313747200555</v>
+        <v>-0.004543961271041519</v>
       </c>
       <c r="G14">
-        <v>0.06439029099290729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.05470008776949754</v>
+      </c>
+      <c r="H14">
+        <v>0.04634882052355134</v>
+      </c>
+      <c r="I14">
+        <v>-0.01185283032343725</v>
+      </c>
+      <c r="J14">
+        <v>0.0557723262869755</v>
+      </c>
+      <c r="K14">
+        <v>-0.02629695988595496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03882207421838504</v>
+        <v>-0.02352911621759665</v>
       </c>
       <c r="C15">
-        <v>0.01183249249393529</v>
+        <v>0.004273306965204958</v>
       </c>
       <c r="D15">
-        <v>-0.0107283723388126</v>
+        <v>-0.00140448681212821</v>
       </c>
       <c r="E15">
-        <v>-0.005616650445807088</v>
+        <v>-0.02335216183611254</v>
       </c>
       <c r="F15">
-        <v>0.02465362149152909</v>
+        <v>0.02804184711989985</v>
       </c>
       <c r="G15">
-        <v>0.01738692461340217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01382355500454643</v>
+      </c>
+      <c r="H15">
+        <v>0.008013093262512086</v>
+      </c>
+      <c r="I15">
+        <v>0.01046668185921529</v>
+      </c>
+      <c r="J15">
+        <v>0.05773087580635616</v>
+      </c>
+      <c r="K15">
+        <v>-0.02835771582405842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.07983446872177494</v>
+        <v>-0.08380364129110479</v>
       </c>
       <c r="C16">
-        <v>-0.07192620161856689</v>
+        <v>0.06952158570045854</v>
       </c>
       <c r="D16">
-        <v>-0.01667598180786779</v>
+        <v>-0.03518262040627389</v>
       </c>
       <c r="E16">
-        <v>-0.03396451187274946</v>
+        <v>0.03103756945237961</v>
       </c>
       <c r="F16">
-        <v>0.04525725413713886</v>
+        <v>-0.009549616229312297</v>
       </c>
       <c r="G16">
-        <v>0.1193947273513294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.1107651186184343</v>
+      </c>
+      <c r="H16">
+        <v>0.0875414296086065</v>
+      </c>
+      <c r="I16">
+        <v>0.0006435233043316103</v>
+      </c>
+      <c r="J16">
+        <v>-0.1098194982059093</v>
+      </c>
+      <c r="K16">
+        <v>-0.009748813301344507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05114598408781074</v>
+        <v>-0.05013975231907004</v>
       </c>
       <c r="C20">
-        <v>-0.02214685006689274</v>
+        <v>0.03273372145357112</v>
       </c>
       <c r="D20">
-        <v>-0.01666760465985689</v>
+        <v>0.01236931070428884</v>
       </c>
       <c r="E20">
-        <v>-0.02344303601782855</v>
+        <v>-0.004758980545285492</v>
       </c>
       <c r="F20">
-        <v>0.01418117402643019</v>
+        <v>0.01639420170996569</v>
       </c>
       <c r="G20">
-        <v>0.109549961005117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04358237411787277</v>
+      </c>
+      <c r="H20">
+        <v>0.04853719261311706</v>
+      </c>
+      <c r="I20">
+        <v>-0.00576990235118764</v>
+      </c>
+      <c r="J20">
+        <v>0.03739050612345743</v>
+      </c>
+      <c r="K20">
+        <v>-0.05720025849615151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.0268557962357562</v>
+        <v>-0.02814239099466928</v>
       </c>
       <c r="C21">
-        <v>-0.03647640732294198</v>
+        <v>0.0184991267490648</v>
       </c>
       <c r="D21">
-        <v>0.007464928968454979</v>
+        <v>0.02886788638738197</v>
       </c>
       <c r="E21">
-        <v>-0.01595884908508118</v>
+        <v>-0.01261694677526412</v>
       </c>
       <c r="F21">
-        <v>-0.08983870430349238</v>
+        <v>-0.01119008491864759</v>
       </c>
       <c r="G21">
-        <v>-0.06491052565770405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04114029470410607</v>
+      </c>
+      <c r="H21">
+        <v>0.07076593425945837</v>
+      </c>
+      <c r="I21">
+        <v>0.06664003295210333</v>
+      </c>
+      <c r="J21">
+        <v>0.04360957477828533</v>
+      </c>
+      <c r="K21">
+        <v>-0.1003935495464893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04413823114525629</v>
+        <v>-0.03526942142549351</v>
       </c>
       <c r="C22">
-        <v>-0.004822549156179096</v>
+        <v>0.002633546531369865</v>
       </c>
       <c r="D22">
-        <v>0.008923514235287575</v>
+        <v>-0.07788580526827396</v>
       </c>
       <c r="E22">
-        <v>-0.5625525379902998</v>
+        <v>-0.4199604418250181</v>
       </c>
       <c r="F22">
-        <v>0.07711934524705986</v>
+        <v>0.4884295685419314</v>
       </c>
       <c r="G22">
-        <v>-0.3175127073863041</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1211540949729671</v>
+      </c>
+      <c r="H22">
+        <v>-0.1498899162068077</v>
+      </c>
+      <c r="I22">
+        <v>0.01000987145897001</v>
+      </c>
+      <c r="J22">
+        <v>-0.08375496071214016</v>
+      </c>
+      <c r="K22">
+        <v>0.0377324428958282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04424191264186565</v>
+        <v>-0.0354778456320556</v>
       </c>
       <c r="C23">
-        <v>-0.005403111253780483</v>
+        <v>0.003136128316039156</v>
       </c>
       <c r="D23">
-        <v>0.007373410681983219</v>
+        <v>-0.07911164530204341</v>
       </c>
       <c r="E23">
-        <v>-0.5616877119833112</v>
+        <v>-0.4214076649626236</v>
       </c>
       <c r="F23">
-        <v>0.07790213508964297</v>
+        <v>0.4900959160241153</v>
       </c>
       <c r="G23">
-        <v>-0.3184355064738024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1226382867911543</v>
+      </c>
+      <c r="H23">
+        <v>-0.1463789676396779</v>
+      </c>
+      <c r="I23">
+        <v>0.008934396680463466</v>
+      </c>
+      <c r="J23">
+        <v>-0.08102451236965209</v>
+      </c>
+      <c r="K23">
+        <v>0.04072768385892035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08587333381480972</v>
+        <v>-0.08598488806421375</v>
       </c>
       <c r="C24">
-        <v>-0.04660609849948383</v>
+        <v>0.06136366063661118</v>
       </c>
       <c r="D24">
-        <v>-0.0242426336210896</v>
+        <v>-0.01559239814170941</v>
       </c>
       <c r="E24">
-        <v>-0.03462660701308014</v>
+        <v>0.02555004567200591</v>
       </c>
       <c r="F24">
-        <v>0.01001678144443412</v>
+        <v>-0.00746449006302221</v>
       </c>
       <c r="G24">
-        <v>0.1251078067695598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.1010828090152268</v>
+      </c>
+      <c r="H24">
+        <v>0.08598489594309693</v>
+      </c>
+      <c r="I24">
+        <v>0.005025196753838818</v>
+      </c>
+      <c r="J24">
+        <v>-0.1116515334901039</v>
+      </c>
+      <c r="K24">
+        <v>0.01232017930075426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07620116885130231</v>
+        <v>-0.08734505103968551</v>
       </c>
       <c r="C25">
-        <v>-0.01913531057841577</v>
+        <v>0.04724223070240745</v>
       </c>
       <c r="D25">
-        <v>-0.0260720085506881</v>
+        <v>-0.02184777571450682</v>
       </c>
       <c r="E25">
-        <v>-0.02551541918279955</v>
+        <v>0.05573895746314777</v>
       </c>
       <c r="F25">
-        <v>0.002666654732181649</v>
+        <v>-0.01830197897251131</v>
       </c>
       <c r="G25">
-        <v>0.1177446529080045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.1042234534565123</v>
+      </c>
+      <c r="H25">
+        <v>0.07759562330314748</v>
+      </c>
+      <c r="I25">
+        <v>0.002597133723812408</v>
+      </c>
+      <c r="J25">
+        <v>-0.09115466827583082</v>
+      </c>
+      <c r="K25">
+        <v>0.007696875224594949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05176668007195184</v>
+        <v>-0.0443618361441745</v>
       </c>
       <c r="C26">
-        <v>-0.02472968743556128</v>
+        <v>0.006922593664956375</v>
       </c>
       <c r="D26">
-        <v>-0.03159775467038161</v>
+        <v>0.01581796044516481</v>
       </c>
       <c r="E26">
-        <v>-0.01374191668411122</v>
+        <v>-0.01449636118160766</v>
       </c>
       <c r="F26">
-        <v>0.03476111720908585</v>
+        <v>0.004266612077027738</v>
       </c>
       <c r="G26">
-        <v>0.05120925076917232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.05279544307407321</v>
+      </c>
+      <c r="H26">
+        <v>0.02712092750717272</v>
+      </c>
+      <c r="I26">
+        <v>-0.007445691010762569</v>
+      </c>
+      <c r="J26">
+        <v>0.03739306858529361</v>
+      </c>
+      <c r="K26">
+        <v>-0.005219780142139554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06286066331672151</v>
+        <v>-0.1064948615832977</v>
       </c>
       <c r="C28">
-        <v>0.2941923436347393</v>
+        <v>-0.3170704862807199</v>
       </c>
       <c r="D28">
-        <v>-0.06469904845797722</v>
+        <v>-0.009081839969436454</v>
       </c>
       <c r="E28">
-        <v>0.03566075064471615</v>
+        <v>0.02192747842909581</v>
       </c>
       <c r="F28">
-        <v>-0.04939480672430577</v>
+        <v>-0.0005707523312757026</v>
       </c>
       <c r="G28">
-        <v>-0.01943296720224089</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02274223035108872</v>
+      </c>
+      <c r="H28">
+        <v>0.007804803615462022</v>
+      </c>
+      <c r="I28">
+        <v>0.01654476852289408</v>
+      </c>
+      <c r="J28">
+        <v>-0.006251094327348281</v>
+      </c>
+      <c r="K28">
+        <v>-0.02115240343060756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05836817509843881</v>
+        <v>-0.04139795042334609</v>
       </c>
       <c r="C29">
-        <v>-0.009429356419785302</v>
+        <v>0.01852977360334038</v>
       </c>
       <c r="D29">
-        <v>-0.02845745810447152</v>
+        <v>-0.003789029663379499</v>
       </c>
       <c r="E29">
-        <v>-0.04509594009437385</v>
+        <v>0.03067909934480062</v>
       </c>
       <c r="F29">
-        <v>0.0357885376120945</v>
+        <v>0.01189367157391761</v>
       </c>
       <c r="G29">
-        <v>0.04011489823040723</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.09542147552020834</v>
+      </c>
+      <c r="H29">
+        <v>0.03437593953491445</v>
+      </c>
+      <c r="I29">
+        <v>0.000420641079894579</v>
+      </c>
+      <c r="J29">
+        <v>0.05760919081174398</v>
+      </c>
+      <c r="K29">
+        <v>-0.04419195891462305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1135131191996252</v>
+        <v>-0.1093246512384897</v>
       </c>
       <c r="C30">
-        <v>0.02349175008716042</v>
+        <v>0.05465030864541123</v>
       </c>
       <c r="D30">
-        <v>-0.07483798402131966</v>
+        <v>-0.04582891290454984</v>
       </c>
       <c r="E30">
-        <v>-0.2001960427913982</v>
+        <v>0.0002722343818919856</v>
       </c>
       <c r="F30">
-        <v>-0.0597997459355443</v>
+        <v>-0.01581747562590451</v>
       </c>
       <c r="G30">
-        <v>0.1505987971577183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1888214383026043</v>
+      </c>
+      <c r="H30">
+        <v>0.09122267834889886</v>
+      </c>
+      <c r="I30">
+        <v>0.1846657255411369</v>
+      </c>
+      <c r="J30">
+        <v>-0.1006755529860847</v>
+      </c>
+      <c r="K30">
+        <v>0.0367404540304498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05756060777373202</v>
+        <v>-0.03921527322444056</v>
       </c>
       <c r="C31">
-        <v>-0.01733957981579074</v>
+        <v>0.03267778141164793</v>
       </c>
       <c r="D31">
-        <v>0.00990738314025668</v>
+        <v>-0.00267490444229877</v>
       </c>
       <c r="E31">
-        <v>-0.007581948773639326</v>
+        <v>-0.002575883088405006</v>
       </c>
       <c r="F31">
-        <v>0.02642306312013805</v>
+        <v>0.001854514219779482</v>
       </c>
       <c r="G31">
-        <v>0.004019627546629414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.0203498652352354</v>
+      </c>
+      <c r="H31">
+        <v>0.01950569302239002</v>
+      </c>
+      <c r="I31">
+        <v>-0.03527823491375535</v>
+      </c>
+      <c r="J31">
+        <v>0.02752210014397678</v>
+      </c>
+      <c r="K31">
+        <v>0.001319319934986889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03661590657740697</v>
+        <v>-0.05302539497549807</v>
       </c>
       <c r="C32">
-        <v>0.0182900415001727</v>
+        <v>0.0004037792858041676</v>
       </c>
       <c r="D32">
-        <v>-0.008531391697155864</v>
+        <v>0.01338467237283272</v>
       </c>
       <c r="E32">
-        <v>-0.08363346188689826</v>
+        <v>0.000679669390406712</v>
       </c>
       <c r="F32">
-        <v>0.1025462078018259</v>
+        <v>-0.05736188067762046</v>
       </c>
       <c r="G32">
-        <v>0.05487749877441413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02124664637779114</v>
+      </c>
+      <c r="H32">
+        <v>0.03889554123360613</v>
+      </c>
+      <c r="I32">
+        <v>-0.01009439581466635</v>
+      </c>
+      <c r="J32">
+        <v>0.01833791279044431</v>
+      </c>
+      <c r="K32">
+        <v>-0.0001983357498517484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1114756476119854</v>
+        <v>-0.09994580776688526</v>
       </c>
       <c r="C33">
-        <v>-0.01726752301821655</v>
+        <v>0.05496505190576051</v>
       </c>
       <c r="D33">
-        <v>0.007740782818274327</v>
+        <v>-0.06554713174853358</v>
       </c>
       <c r="E33">
-        <v>-0.007552713166569512</v>
+        <v>0.03061166488278293</v>
       </c>
       <c r="F33">
-        <v>0.05579423189690144</v>
+        <v>-0.01123117807370176</v>
       </c>
       <c r="G33">
-        <v>0.05394697372677884</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04043348739537459</v>
+      </c>
+      <c r="H33">
+        <v>0.04816519918992863</v>
+      </c>
+      <c r="I33">
+        <v>-0.01211943070561193</v>
+      </c>
+      <c r="J33">
+        <v>-0.01624862640883582</v>
+      </c>
+      <c r="K33">
+        <v>0.02121797473737337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.066166122200042</v>
+        <v>-0.07098517853927253</v>
       </c>
       <c r="C34">
-        <v>-0.04785527054049943</v>
+        <v>0.05559873394916166</v>
       </c>
       <c r="D34">
-        <v>-0.01183236595263658</v>
+        <v>-0.02034769625643516</v>
       </c>
       <c r="E34">
-        <v>-0.009983942494569999</v>
+        <v>0.03180457017826916</v>
       </c>
       <c r="F34">
-        <v>0.02449729421714999</v>
+        <v>-0.01001061371653691</v>
       </c>
       <c r="G34">
-        <v>0.09871715597964906</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.09893456758111768</v>
+      </c>
+      <c r="H34">
+        <v>0.08306634165181773</v>
+      </c>
+      <c r="I34">
+        <v>0.0005749033634907442</v>
+      </c>
+      <c r="J34">
+        <v>-0.08318172473665257</v>
+      </c>
+      <c r="K34">
+        <v>-0.02812721621699657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04482993422667126</v>
+        <v>-0.02096270989454693</v>
       </c>
       <c r="C35">
-        <v>-0.004966664887952033</v>
+        <v>0.01681851916926922</v>
       </c>
       <c r="D35">
-        <v>0.01517056996467439</v>
+        <v>-0.004800030070598248</v>
       </c>
       <c r="E35">
-        <v>-0.002259882036743859</v>
+        <v>0.005939037188403704</v>
       </c>
       <c r="F35">
-        <v>-0.02938617475521485</v>
+        <v>-0.0003391689942069822</v>
       </c>
       <c r="G35">
-        <v>0.04519832623553988</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.0599633053980702</v>
+      </c>
+      <c r="H35">
+        <v>0.02238882984133155</v>
+      </c>
+      <c r="I35">
+        <v>0.009958226792926331</v>
+      </c>
+      <c r="J35">
+        <v>0.008244324390024569</v>
+      </c>
+      <c r="K35">
+        <v>-0.06573893025622775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03692042305967103</v>
+        <v>-0.03023543014953903</v>
       </c>
       <c r="C36">
-        <v>-0.003379856044077936</v>
+        <v>0.01182568285759449</v>
       </c>
       <c r="D36">
-        <v>-0.02341736277375528</v>
+        <v>-0.006226759778043424</v>
       </c>
       <c r="E36">
-        <v>-0.03474047623125553</v>
+        <v>-0.004349272639851805</v>
       </c>
       <c r="F36">
-        <v>0.008642060552733821</v>
+        <v>0.007549156068967744</v>
       </c>
       <c r="G36">
-        <v>0.05509484424007541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.05038790448763746</v>
+      </c>
+      <c r="H36">
+        <v>0.04833519285435076</v>
+      </c>
+      <c r="I36">
+        <v>0.00708552307186139</v>
+      </c>
+      <c r="J36">
+        <v>0.03026334142083667</v>
+      </c>
+      <c r="K36">
+        <v>0.01557175129025546</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05385339090553496</v>
+        <v>-0.02205532192628894</v>
       </c>
       <c r="C38">
-        <v>-0.01492010080132821</v>
+        <v>0.02022732347221437</v>
       </c>
       <c r="D38">
-        <v>-0.005187567495405219</v>
+        <v>-0.0117610664169788</v>
       </c>
       <c r="E38">
-        <v>-0.007184565562648721</v>
+        <v>-0.002968654916729644</v>
       </c>
       <c r="F38">
-        <v>0.008149465176541073</v>
+        <v>0.02310969487307508</v>
       </c>
       <c r="G38">
-        <v>0.05388656065977046</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01395637615419965</v>
+      </c>
+      <c r="H38">
+        <v>-0.04518321925107685</v>
+      </c>
+      <c r="I38">
+        <v>0.009419319020253211</v>
+      </c>
+      <c r="J38">
+        <v>0.01580717791522052</v>
+      </c>
+      <c r="K38">
+        <v>0.008219477531378229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1096440891867016</v>
+        <v>-0.1191271985975029</v>
       </c>
       <c r="C39">
-        <v>-0.04123208355949173</v>
+        <v>0.08614284909092985</v>
       </c>
       <c r="D39">
-        <v>-0.003692618681101482</v>
+        <v>-0.05005264953140987</v>
       </c>
       <c r="E39">
-        <v>-0.06817268632503874</v>
+        <v>0.0902986591777524</v>
       </c>
       <c r="F39">
-        <v>0.01317433693230663</v>
+        <v>-0.05999337677041658</v>
       </c>
       <c r="G39">
-        <v>0.1519160016520506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1439128159414159</v>
+      </c>
+      <c r="H39">
+        <v>0.06381473068344221</v>
+      </c>
+      <c r="I39">
+        <v>0.02244426104920762</v>
+      </c>
+      <c r="J39">
+        <v>-0.1742732604898444</v>
+      </c>
+      <c r="K39">
+        <v>-0.01230746971573614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05328155725027402</v>
+        <v>-0.01986885441892442</v>
       </c>
       <c r="C40">
-        <v>-0.02342400385711195</v>
+        <v>0.03379941006547166</v>
       </c>
       <c r="D40">
-        <v>0.01761081990789294</v>
+        <v>0.001756070280663144</v>
       </c>
       <c r="E40">
-        <v>-0.1001932530769016</v>
+        <v>-0.04590919672168465</v>
       </c>
       <c r="F40">
-        <v>-0.01111374424653271</v>
+        <v>0.05294577555132714</v>
       </c>
       <c r="G40">
-        <v>0.240238094761568</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.07033396277299789</v>
+      </c>
+      <c r="H40">
+        <v>0.09292568838774412</v>
+      </c>
+      <c r="I40">
+        <v>0.08359025145875172</v>
+      </c>
+      <c r="J40">
+        <v>0.03883662165685444</v>
+      </c>
+      <c r="K40">
+        <v>-0.03965671653629563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04851744417885082</v>
+        <v>-0.03277369488898012</v>
       </c>
       <c r="C41">
-        <v>-0.02894657774795703</v>
+        <v>0.01673820928059994</v>
       </c>
       <c r="D41">
-        <v>0.0007041744559007469</v>
+        <v>0.007659322405140992</v>
       </c>
       <c r="E41">
-        <v>0.01285576385490332</v>
+        <v>0.01144982442666382</v>
       </c>
       <c r="F41">
-        <v>0.02466951251704648</v>
+        <v>-0.001341699247157829</v>
       </c>
       <c r="G41">
-        <v>0.06485440123329236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01964410126695083</v>
+      </c>
+      <c r="H41">
+        <v>0.01292469438577711</v>
+      </c>
+      <c r="I41">
+        <v>-0.01233676182560336</v>
+      </c>
+      <c r="J41">
+        <v>0.02120588834544181</v>
+      </c>
+      <c r="K41">
+        <v>-0.02530798374995462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07353205034655184</v>
+        <v>-0.04814619203635284</v>
       </c>
       <c r="C43">
-        <v>-0.02833731311531086</v>
+        <v>0.01996574850985185</v>
       </c>
       <c r="D43">
-        <v>-0.01805921880408019</v>
+        <v>-0.01590601736998196</v>
       </c>
       <c r="E43">
-        <v>-0.02290138040053554</v>
+        <v>0.004384820873449601</v>
       </c>
       <c r="F43">
-        <v>0.01798681487208947</v>
+        <v>0.012524296694465</v>
       </c>
       <c r="G43">
-        <v>0.008035621083303284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.03475674564457534</v>
+      </c>
+      <c r="H43">
+        <v>-0.003472842343446718</v>
+      </c>
+      <c r="I43">
+        <v>-0.007516822604463427</v>
+      </c>
+      <c r="J43">
+        <v>0.01511932253098963</v>
+      </c>
+      <c r="K43">
+        <v>-0.007753707319958511</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07255259068183681</v>
+        <v>-0.1085420503724817</v>
       </c>
       <c r="C44">
-        <v>-0.01901266367853807</v>
+        <v>0.09202572703402376</v>
       </c>
       <c r="D44">
-        <v>-0.09707967188464553</v>
+        <v>-0.04696407796502418</v>
       </c>
       <c r="E44">
-        <v>-0.06167981987118307</v>
+        <v>0.002759783330990394</v>
       </c>
       <c r="F44">
-        <v>0.04455928343588346</v>
+        <v>0.1170790854663006</v>
       </c>
       <c r="G44">
-        <v>0.1066832112398858</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.2380913346103311</v>
+      </c>
+      <c r="H44">
+        <v>0.1214186194264528</v>
+      </c>
+      <c r="I44">
+        <v>0.07097566227343921</v>
+      </c>
+      <c r="J44">
+        <v>0.0703718877753326</v>
+      </c>
+      <c r="K44">
+        <v>-0.09100917065775747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04829161280668122</v>
+        <v>-0.02712023280676378</v>
       </c>
       <c r="C46">
-        <v>-0.04056717002606063</v>
+        <v>0.009975971081567725</v>
       </c>
       <c r="D46">
-        <v>-0.02967237385554747</v>
+        <v>-0.008012822918067767</v>
       </c>
       <c r="E46">
-        <v>-0.05293497930624385</v>
+        <v>-0.006559390810342273</v>
       </c>
       <c r="F46">
-        <v>0.02080467414546201</v>
+        <v>0.04499479775507505</v>
       </c>
       <c r="G46">
-        <v>0.03173676996145319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05979385967549766</v>
+      </c>
+      <c r="H46">
+        <v>0.01927151924431884</v>
+      </c>
+      <c r="I46">
+        <v>0.01097274311797941</v>
+      </c>
+      <c r="J46">
+        <v>0.05053710178450975</v>
+      </c>
+      <c r="K46">
+        <v>-0.07636190567317785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.04821714419324057</v>
+        <v>-0.04088806319736017</v>
       </c>
       <c r="C47">
-        <v>-0.001721919511441108</v>
+        <v>0.01631263450505582</v>
       </c>
       <c r="D47">
-        <v>-0.008583635546318131</v>
+        <v>-0.001205715544218654</v>
       </c>
       <c r="E47">
-        <v>-0.06135874306279132</v>
+        <v>-0.008486564429142739</v>
       </c>
       <c r="F47">
-        <v>-0.008463685442549029</v>
+        <v>0.007524091471893504</v>
       </c>
       <c r="G47">
-        <v>-0.005698629655300313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04627757960974613</v>
+      </c>
+      <c r="H47">
+        <v>0.02210412202500383</v>
+      </c>
+      <c r="I47">
+        <v>0.004400675860862501</v>
+      </c>
+      <c r="J47">
+        <v>0.05292607930299785</v>
+      </c>
+      <c r="K47">
+        <v>-0.02997864220949371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04487374731477024</v>
+        <v>-0.04432255668393377</v>
       </c>
       <c r="C48">
-        <v>0.0009908236727671229</v>
+        <v>0.01530405231256633</v>
       </c>
       <c r="D48">
-        <v>0.002129815303542381</v>
+        <v>-0.002724457431709176</v>
       </c>
       <c r="E48">
-        <v>-0.03617882167614291</v>
+        <v>0.006112259887701784</v>
       </c>
       <c r="F48">
-        <v>0.01194134088660675</v>
+        <v>0.005422648790082524</v>
       </c>
       <c r="G48">
-        <v>0.03872305259940903</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.05968989072089868</v>
+      </c>
+      <c r="H48">
+        <v>0.04236352625612011</v>
+      </c>
+      <c r="I48">
+        <v>0.02019983321718459</v>
+      </c>
+      <c r="J48">
+        <v>-0.0004046101969403518</v>
+      </c>
+      <c r="K48">
+        <v>-0.01859123049986135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2355214514857955</v>
+        <v>-0.2294995343311694</v>
       </c>
       <c r="C49">
-        <v>-0.08885386323314877</v>
+        <v>0.03994045520353953</v>
       </c>
       <c r="D49">
-        <v>-0.02348261816970134</v>
+        <v>0.05808044573691164</v>
       </c>
       <c r="E49">
-        <v>0.08780206106311399</v>
+        <v>0.05426090929537438</v>
       </c>
       <c r="F49">
-        <v>-0.1696634642829797</v>
+        <v>0.009544550699620277</v>
       </c>
       <c r="G49">
-        <v>-0.07375760523857497</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.2063813364030473</v>
+      </c>
+      <c r="H49">
+        <v>-0.1544714667983021</v>
+      </c>
+      <c r="I49">
+        <v>0.1695415428612715</v>
+      </c>
+      <c r="J49">
+        <v>-0.2520884292376904</v>
+      </c>
+      <c r="K49">
+        <v>0.1379859660463635</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05496355617529142</v>
+        <v>-0.04395979631873255</v>
       </c>
       <c r="C50">
-        <v>-0.01313852852812008</v>
+        <v>0.02582606940948171</v>
       </c>
       <c r="D50">
-        <v>0.004709555468917073</v>
+        <v>0.007918176614144292</v>
       </c>
       <c r="E50">
-        <v>-0.02708332272562661</v>
+        <v>-0.004795324271480274</v>
       </c>
       <c r="F50">
-        <v>0.05535877980715206</v>
+        <v>-0.001846918543760537</v>
       </c>
       <c r="G50">
-        <v>-0.005754520944188288</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.04800870801067044</v>
+      </c>
+      <c r="H50">
+        <v>0.02859765966913957</v>
+      </c>
+      <c r="I50">
+        <v>-0.02047414035387466</v>
+      </c>
+      <c r="J50">
+        <v>0.02556402597500772</v>
+      </c>
+      <c r="K50">
+        <v>0.02415177622392238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03705453860696103</v>
+        <v>-0.02016353909188347</v>
       </c>
       <c r="C51">
-        <v>-0.0159740405284819</v>
+        <v>-0.002834944767255613</v>
       </c>
       <c r="D51">
-        <v>-0.01246752053548719</v>
+        <v>-0.01348842925005614</v>
       </c>
       <c r="E51">
-        <v>0.004635780809437103</v>
+        <v>0.01179381258541993</v>
       </c>
       <c r="F51">
-        <v>-0.005214965271889838</v>
+        <v>0.01881284009749731</v>
       </c>
       <c r="G51">
-        <v>-0.001962560848206939</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02682668019215232</v>
+      </c>
+      <c r="H51">
+        <v>-0.004329085631890321</v>
+      </c>
+      <c r="I51">
+        <v>0.01324707995734653</v>
+      </c>
+      <c r="J51">
+        <v>-0.02699313187724779</v>
+      </c>
+      <c r="K51">
+        <v>0.002759711098479631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07251314986039376</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.03911043517406007</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01400212927550127</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01472092628003116</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.0156544670814071</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.05369803157348993</v>
+      </c>
+      <c r="H52">
+        <v>-0.03889499885535849</v>
+      </c>
+      <c r="I52">
+        <v>-0.1258007735933078</v>
+      </c>
+      <c r="J52">
+        <v>0.01052033959291701</v>
+      </c>
+      <c r="K52">
+        <v>0.006172040853514066</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1591441842554411</v>
+        <v>-0.1627374670114116</v>
       </c>
       <c r="C53">
-        <v>0.0009385159594752727</v>
+        <v>0.03157722552058274</v>
       </c>
       <c r="D53">
-        <v>-0.0133414208565659</v>
+        <v>0.00430093203082838</v>
       </c>
       <c r="E53">
-        <v>0.05407091144952111</v>
+        <v>0.01694938780425581</v>
       </c>
       <c r="F53">
-        <v>0.2245587944052808</v>
+        <v>0.01255203277200433</v>
       </c>
       <c r="G53">
-        <v>-0.06556441341693074</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.009394660919168749</v>
+      </c>
+      <c r="H53">
+        <v>-0.1090656755262159</v>
+      </c>
+      <c r="I53">
+        <v>-0.2676630006120251</v>
+      </c>
+      <c r="J53">
+        <v>0.08728091909138734</v>
+      </c>
+      <c r="K53">
+        <v>0.07910845141685122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05382738340198126</v>
+        <v>-0.05280111002062268</v>
       </c>
       <c r="C54">
-        <v>-0.006615881202790081</v>
+        <v>0.03187141973668245</v>
       </c>
       <c r="D54">
-        <v>-0.02656945178207243</v>
+        <v>0.004093952809425434</v>
       </c>
       <c r="E54">
-        <v>-0.04070952261023161</v>
+        <v>-0.01057736873743268</v>
       </c>
       <c r="F54">
-        <v>0.02107901168442947</v>
+        <v>0.02367382911878947</v>
       </c>
       <c r="G54">
-        <v>0.069564043292152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.06889088984952922</v>
+      </c>
+      <c r="H54">
+        <v>0.1215936681411212</v>
+      </c>
+      <c r="I54">
+        <v>0.005833311997933175</v>
+      </c>
+      <c r="J54">
+        <v>0.1176425971150492</v>
+      </c>
+      <c r="K54">
+        <v>-0.06084717773399819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09249896817307311</v>
+        <v>-0.08920565991830874</v>
       </c>
       <c r="C55">
-        <v>-0.01647033794620605</v>
+        <v>0.03313672351520015</v>
       </c>
       <c r="D55">
-        <v>-0.01931153196029789</v>
+        <v>-0.0479726115506488</v>
       </c>
       <c r="E55">
-        <v>-0.0009087208498988333</v>
+        <v>0.04084734034114754</v>
       </c>
       <c r="F55">
-        <v>0.1804886354311097</v>
+        <v>0.005428575061136874</v>
       </c>
       <c r="G55">
-        <v>-0.01505210813678022</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01911266305960705</v>
+      </c>
+      <c r="H55">
+        <v>-0.0203966147513713</v>
+      </c>
+      <c r="I55">
+        <v>-0.1654241477143468</v>
+      </c>
+      <c r="J55">
+        <v>0.04454146593838325</v>
+      </c>
+      <c r="K55">
+        <v>0.02631499897450836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1605895012536056</v>
+        <v>-0.1598384720412432</v>
       </c>
       <c r="C56">
-        <v>-0.001242763593504352</v>
+        <v>0.04431657017379517</v>
       </c>
       <c r="D56">
-        <v>-0.0056951044935523</v>
+        <v>-0.01292367438811455</v>
       </c>
       <c r="E56">
-        <v>0.05328293582000767</v>
+        <v>0.04503056663624961</v>
       </c>
       <c r="F56">
-        <v>0.2255500487471135</v>
+        <v>0.01295038478895282</v>
       </c>
       <c r="G56">
-        <v>-0.06700787701649738</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.0449365243827174</v>
+      </c>
+      <c r="H56">
+        <v>-0.0795415695949256</v>
+      </c>
+      <c r="I56">
+        <v>-0.2234604416810663</v>
+      </c>
+      <c r="J56">
+        <v>0.06127177621685558</v>
+      </c>
+      <c r="K56">
+        <v>0.0702538371164855</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03021666475237894</v>
+        <v>-0.0423517176275559</v>
       </c>
       <c r="C58">
-        <v>-0.05284224357546728</v>
+        <v>0.03034143277029514</v>
       </c>
       <c r="D58">
-        <v>0.02652229638920341</v>
+        <v>-0.004021251569207396</v>
       </c>
       <c r="E58">
-        <v>-0.2728911213664046</v>
+        <v>-0.06585818241054409</v>
       </c>
       <c r="F58">
-        <v>-0.4764013862369449</v>
+        <v>0.05208491194059933</v>
       </c>
       <c r="G58">
-        <v>0.1760227602937874</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.11291212869802</v>
+      </c>
+      <c r="H58">
+        <v>-0.01236006589338039</v>
+      </c>
+      <c r="I58">
+        <v>0.1841050465287071</v>
+      </c>
+      <c r="J58">
+        <v>0.007865647812149065</v>
+      </c>
+      <c r="K58">
+        <v>-0.264932181348964</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1552771101102366</v>
+        <v>-0.1797150965386696</v>
       </c>
       <c r="C59">
-        <v>0.3897350809303722</v>
+        <v>-0.3003130011340833</v>
       </c>
       <c r="D59">
-        <v>-0.09288229939686136</v>
+        <v>-0.02978697974605898</v>
       </c>
       <c r="E59">
-        <v>0.07208593617342107</v>
+        <v>0.06086307615556509</v>
       </c>
       <c r="F59">
-        <v>0.0402116696778844</v>
+        <v>-0.002276202824659026</v>
       </c>
       <c r="G59">
-        <v>0.03000415725335655</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01752711873744559</v>
+      </c>
+      <c r="H59">
+        <v>0.0541161264226136</v>
+      </c>
+      <c r="I59">
+        <v>-0.06805789272365018</v>
+      </c>
+      <c r="J59">
+        <v>-0.0269174878876238</v>
+      </c>
+      <c r="K59">
+        <v>0.02671626196061489</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2643925831995794</v>
+        <v>-0.2666611055873911</v>
       </c>
       <c r="C60">
-        <v>-0.07287006268629152</v>
+        <v>0.1435597987724796</v>
       </c>
       <c r="D60">
-        <v>-0.07146538894376865</v>
+        <v>0.06462487034806932</v>
       </c>
       <c r="E60">
-        <v>0.08011059214103572</v>
+        <v>0.1149240827669102</v>
       </c>
       <c r="F60">
-        <v>-0.08205403172045099</v>
+        <v>0.04616235100166039</v>
       </c>
       <c r="G60">
-        <v>-0.1679445970708844</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07277417720736912</v>
+      </c>
+      <c r="H60">
+        <v>-0.2065143219141566</v>
+      </c>
+      <c r="I60">
+        <v>0.2027274102654815</v>
+      </c>
+      <c r="J60">
+        <v>-0.1059780143873231</v>
+      </c>
+      <c r="K60">
+        <v>0.3462052838846971</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09440924006413992</v>
+        <v>-0.1066747776896313</v>
       </c>
       <c r="C61">
-        <v>-0.01865921254647829</v>
+        <v>0.04723084950398763</v>
       </c>
       <c r="D61">
-        <v>-0.004911954748894273</v>
+        <v>-0.03473044165956335</v>
       </c>
       <c r="E61">
-        <v>-0.02107370310640657</v>
+        <v>0.06943693725198062</v>
       </c>
       <c r="F61">
-        <v>0.02272283164804833</v>
+        <v>-0.02086401425110842</v>
       </c>
       <c r="G61">
-        <v>0.06528944071110014</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1218876170626243</v>
+      </c>
+      <c r="H61">
+        <v>0.08362750372946254</v>
+      </c>
+      <c r="I61">
+        <v>-0.04592673248185484</v>
+      </c>
+      <c r="J61">
+        <v>-0.08672808405944502</v>
+      </c>
+      <c r="K61">
+        <v>-0.03546317153663728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1447508907330207</v>
+        <v>-0.1544854520392263</v>
       </c>
       <c r="C62">
-        <v>-0.02475137019437795</v>
+        <v>0.0476663069686591</v>
       </c>
       <c r="D62">
-        <v>0.03217052611334725</v>
+        <v>-0.01437437650453506</v>
       </c>
       <c r="E62">
-        <v>0.1232646629060715</v>
+        <v>0.03732345040587767</v>
       </c>
       <c r="F62">
-        <v>0.2365143949057706</v>
+        <v>-0.008382850577342641</v>
       </c>
       <c r="G62">
-        <v>-0.03213364464297605</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02122571736309272</v>
+      </c>
+      <c r="H62">
+        <v>-0.09325921586778255</v>
+      </c>
+      <c r="I62">
+        <v>-0.2211361975860814</v>
+      </c>
+      <c r="J62">
+        <v>0.08529044985556705</v>
+      </c>
+      <c r="K62">
+        <v>0.0611290335791908</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04342418658271577</v>
+        <v>-0.04015292108411028</v>
       </c>
       <c r="C63">
-        <v>-0.01460345106423163</v>
+        <v>0.004028901405994291</v>
       </c>
       <c r="D63">
-        <v>0.008315956131172994</v>
+        <v>-0.01157269072706174</v>
       </c>
       <c r="E63">
-        <v>-0.01375802825616956</v>
+        <v>-0.01699419680939146</v>
       </c>
       <c r="F63">
-        <v>0.02184513361376443</v>
+        <v>-0.02091516851744375</v>
       </c>
       <c r="G63">
-        <v>0.04097974753583875</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.0408514036112119</v>
+      </c>
+      <c r="H63">
+        <v>0.0523225397161655</v>
+      </c>
+      <c r="I63">
+        <v>0.01556189292091927</v>
+      </c>
+      <c r="J63">
+        <v>0.0134762012776913</v>
+      </c>
+      <c r="K63">
+        <v>-0.007438713043968856</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1066022181378862</v>
+        <v>-0.0996067556919767</v>
       </c>
       <c r="C64">
-        <v>-0.01167570313414179</v>
+        <v>0.02521768966707206</v>
       </c>
       <c r="D64">
-        <v>-0.0390772081323793</v>
+        <v>0.009117474612237973</v>
       </c>
       <c r="E64">
-        <v>-0.03507463140993231</v>
+        <v>0.02910435790473594</v>
       </c>
       <c r="F64">
-        <v>-0.01692753406839174</v>
+        <v>0.04130773145489364</v>
       </c>
       <c r="G64">
-        <v>0.05330572931958548</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06299975529412678</v>
+      </c>
+      <c r="H64">
+        <v>0.04022717393383552</v>
+      </c>
+      <c r="I64">
+        <v>0.08134538061169753</v>
+      </c>
+      <c r="J64">
+        <v>-0.02333793457658651</v>
+      </c>
+      <c r="K64">
+        <v>0.04595577102072059</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.120376215669782</v>
+        <v>-0.115327724038094</v>
       </c>
       <c r="C65">
-        <v>-0.02539043234092627</v>
+        <v>0.007674524192004019</v>
       </c>
       <c r="D65">
-        <v>-0.0194388360126256</v>
+        <v>0.005020194429189511</v>
       </c>
       <c r="E65">
-        <v>-0.05900249740132844</v>
+        <v>-0.02747899716317443</v>
       </c>
       <c r="F65">
-        <v>-0.1985056263942232</v>
+        <v>-0.02241393627595134</v>
       </c>
       <c r="G65">
-        <v>-0.1984650972104715</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.05583435440101852</v>
+      </c>
+      <c r="H65">
+        <v>0.008102443432539052</v>
+      </c>
+      <c r="I65">
+        <v>0.2953496645869418</v>
+      </c>
+      <c r="J65">
+        <v>0.4628447886575222</v>
+      </c>
+      <c r="K65">
+        <v>0.2878732651189044</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1607481679325392</v>
+        <v>-0.1459016466036053</v>
       </c>
       <c r="C66">
-        <v>-0.04843368093663123</v>
+        <v>0.1021025058583625</v>
       </c>
       <c r="D66">
-        <v>0.01790293900245963</v>
+        <v>-0.0500280115312688</v>
       </c>
       <c r="E66">
-        <v>-0.01780593147377553</v>
+        <v>0.08767038373400567</v>
       </c>
       <c r="F66">
-        <v>0.04512943466625644</v>
+        <v>-0.06822667008561585</v>
       </c>
       <c r="G66">
-        <v>0.2921454965908204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1331004592824845</v>
+      </c>
+      <c r="H66">
+        <v>0.0562118499896544</v>
+      </c>
+      <c r="I66">
+        <v>-0.009286281365851655</v>
+      </c>
+      <c r="J66">
+        <v>-0.2189791912874665</v>
+      </c>
+      <c r="K66">
+        <v>0.03804742090565306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1054225434550696</v>
+        <v>-0.07865541916983386</v>
       </c>
       <c r="C67">
-        <v>-0.03859652092422059</v>
+        <v>0.05235917727195195</v>
       </c>
       <c r="D67">
-        <v>-0.02243657174486524</v>
+        <v>-0.06986514273673172</v>
       </c>
       <c r="E67">
-        <v>0.01648131359694288</v>
+        <v>0.02470650193119735</v>
       </c>
       <c r="F67">
-        <v>0.02036550467931443</v>
+        <v>0.02586309665652285</v>
       </c>
       <c r="G67">
-        <v>0.04893103285341686</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.05456634775094377</v>
+      </c>
+      <c r="H67">
+        <v>-0.01564949373462552</v>
+      </c>
+      <c r="I67">
+        <v>-0.0127174928487838</v>
+      </c>
+      <c r="J67">
+        <v>-0.0599904484017036</v>
+      </c>
+      <c r="K67">
+        <v>0.07979419197652649</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04202589066097607</v>
+        <v>-0.08944464612367055</v>
       </c>
       <c r="C68">
-        <v>0.2921850924500471</v>
+        <v>-0.2835168246147582</v>
       </c>
       <c r="D68">
-        <v>-0.04173534518649732</v>
+        <v>-0.00678944883226797</v>
       </c>
       <c r="E68">
-        <v>0.01056075371024951</v>
+        <v>0.01357574462568986</v>
       </c>
       <c r="F68">
-        <v>-0.01112614008431302</v>
+        <v>-0.02101206655156783</v>
       </c>
       <c r="G68">
-        <v>-0.02624655715799159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03586575940478928</v>
+      </c>
+      <c r="H68">
+        <v>0.0270523605297674</v>
+      </c>
+      <c r="I68">
+        <v>0.004833615025823826</v>
+      </c>
+      <c r="J68">
+        <v>0.006822390876137004</v>
+      </c>
+      <c r="K68">
+        <v>0.01698889142688417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04797293753194078</v>
+        <v>-0.03744381858812071</v>
       </c>
       <c r="C69">
-        <v>-0.01867743818485559</v>
+        <v>0.005676658949856059</v>
       </c>
       <c r="D69">
-        <v>-0.002557297328028849</v>
+        <v>-0.02496347465511557</v>
       </c>
       <c r="E69">
-        <v>0.0004013585311144355</v>
+        <v>0.01231000516878951</v>
       </c>
       <c r="F69">
-        <v>-0.003873764426683904</v>
+        <v>0.01248895464520897</v>
       </c>
       <c r="G69">
-        <v>0.02195585125869792</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01774035776568845</v>
+      </c>
+      <c r="H69">
+        <v>-0.0005187340940018259</v>
+      </c>
+      <c r="I69">
+        <v>-0.001078347228783829</v>
+      </c>
+      <c r="J69">
+        <v>0.0299004116108619</v>
+      </c>
+      <c r="K69">
+        <v>0.005046628824964157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07509171533683216</v>
+        <v>-0.0464692246013472</v>
       </c>
       <c r="C70">
-        <v>-0.007688565219699572</v>
+        <v>0.002935819839938253</v>
       </c>
       <c r="D70">
-        <v>-0.03663881100655255</v>
+        <v>-0.02747078097716937</v>
       </c>
       <c r="E70">
-        <v>0.03117740234124014</v>
+        <v>0.04962617002092504</v>
       </c>
       <c r="F70">
-        <v>-0.07485064217135569</v>
+        <v>0.01317137090892087</v>
       </c>
       <c r="G70">
-        <v>-0.00959837090657647</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.015195521987419</v>
+      </c>
+      <c r="H70">
+        <v>0.01028979715902207</v>
+      </c>
+      <c r="I70">
+        <v>0.07629816057718446</v>
+      </c>
+      <c r="J70">
+        <v>0.1484221186535523</v>
+      </c>
+      <c r="K70">
+        <v>-0.135997541977308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.05225978010059021</v>
+        <v>-0.1047941996238074</v>
       </c>
       <c r="C71">
-        <v>0.2930576887896775</v>
+        <v>-0.2964598999037483</v>
       </c>
       <c r="D71">
-        <v>-0.05989473362353663</v>
+        <v>-0.005706944371717544</v>
       </c>
       <c r="E71">
-        <v>0.007219091848624638</v>
+        <v>0.02703103565142675</v>
       </c>
       <c r="F71">
-        <v>-0.008049230746803046</v>
+        <v>0.007107455630328679</v>
       </c>
       <c r="G71">
-        <v>0.01000725610231636</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04686160874011427</v>
+      </c>
+      <c r="H71">
+        <v>0.01873063786314565</v>
+      </c>
+      <c r="I71">
+        <v>0.001189301414067868</v>
+      </c>
+      <c r="J71">
+        <v>-0.02163384026532551</v>
+      </c>
+      <c r="K71">
+        <v>0.03706122857906969</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1460853658469292</v>
+        <v>-0.1472704676424254</v>
       </c>
       <c r="C72">
-        <v>0.05143493025508261</v>
+        <v>0.000668791780411457</v>
       </c>
       <c r="D72">
-        <v>0.235978463660612</v>
+        <v>-0.01800409708259608</v>
       </c>
       <c r="E72">
-        <v>0.03540481495030105</v>
+        <v>-0.06443656970562776</v>
       </c>
       <c r="F72">
-        <v>0.03475793680481437</v>
+        <v>-0.08062631237404146</v>
       </c>
       <c r="G72">
-        <v>0.05278391255263566</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.004588281884887967</v>
+      </c>
+      <c r="H72">
+        <v>-0.0195616243601934</v>
+      </c>
+      <c r="I72">
+        <v>-0.02829890129857416</v>
+      </c>
+      <c r="J72">
+        <v>0.08066590233694308</v>
+      </c>
+      <c r="K72">
+        <v>0.1576545877499544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2842700617157592</v>
+        <v>-0.2419374053681155</v>
       </c>
       <c r="C73">
-        <v>-0.1643003638471526</v>
+        <v>0.09726216310048554</v>
       </c>
       <c r="D73">
-        <v>-0.04184462758018669</v>
+        <v>-0.02480830372709189</v>
       </c>
       <c r="E73">
-        <v>0.1548993656139748</v>
+        <v>0.157878227452096</v>
       </c>
       <c r="F73">
-        <v>-0.3085604960287383</v>
+        <v>0.04958707335346991</v>
       </c>
       <c r="G73">
-        <v>-0.2279971430153819</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3262119311175332</v>
+      </c>
+      <c r="H73">
+        <v>-0.2585808815120162</v>
+      </c>
+      <c r="I73">
+        <v>0.2506883947704502</v>
+      </c>
+      <c r="J73">
+        <v>-0.2256718338997553</v>
+      </c>
+      <c r="K73">
+        <v>-0.07688290036037872</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.09804905634101879</v>
+        <v>-0.1139770587139007</v>
       </c>
       <c r="C74">
-        <v>-0.03809741770424692</v>
+        <v>0.05358898377122021</v>
       </c>
       <c r="D74">
-        <v>-0.000906623176381357</v>
+        <v>-0.02886262350805387</v>
       </c>
       <c r="E74">
-        <v>0.01547705856385095</v>
+        <v>0.01275850146510946</v>
       </c>
       <c r="F74">
-        <v>0.09913152315347946</v>
+        <v>0.005180169504995639</v>
       </c>
       <c r="G74">
-        <v>-0.0355883257233918</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05068603314838314</v>
+      </c>
+      <c r="H74">
+        <v>-0.08909321610199063</v>
+      </c>
+      <c r="I74">
+        <v>-0.1317949056959215</v>
+      </c>
+      <c r="J74">
+        <v>0.05327134914738131</v>
+      </c>
+      <c r="K74">
+        <v>0.008944078618995516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.0928933948819282</v>
+        <v>-0.1109428652967421</v>
       </c>
       <c r="C75">
-        <v>-0.01806191931003261</v>
+        <v>0.04447706191371915</v>
       </c>
       <c r="D75">
-        <v>0.02182691581170504</v>
+        <v>-0.009082864638880092</v>
       </c>
       <c r="E75">
-        <v>0.03402013851920577</v>
+        <v>0.0008582585219231799</v>
       </c>
       <c r="F75">
-        <v>0.109770433144099</v>
+        <v>-0.007184711222645111</v>
       </c>
       <c r="G75">
-        <v>-0.06588763472688323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.005551565778849124</v>
+      </c>
+      <c r="H75">
+        <v>-0.04526078890687221</v>
+      </c>
+      <c r="I75">
+        <v>-0.151192133224763</v>
+      </c>
+      <c r="J75">
+        <v>0.04963278467694068</v>
+      </c>
+      <c r="K75">
+        <v>-0.0003050533850008326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1354825417262935</v>
+        <v>-0.05641663394425698</v>
       </c>
       <c r="C76">
-        <v>-0.03132914762364156</v>
+        <v>0.01780382643796097</v>
       </c>
       <c r="D76">
-        <v>-0.01822004860025761</v>
+        <v>-0.02988883126165055</v>
       </c>
       <c r="E76">
-        <v>-0.01803742363980327</v>
+        <v>0.01888253656425688</v>
       </c>
       <c r="F76">
-        <v>0.2179869741894608</v>
+        <v>0.03044237806138859</v>
       </c>
       <c r="G76">
-        <v>-0.1010943828578724</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.03820161295221776</v>
+      </c>
+      <c r="H76">
+        <v>-0.04517744324363016</v>
+      </c>
+      <c r="I76">
+        <v>-0.1329731991868453</v>
+      </c>
+      <c r="J76">
+        <v>0.04556549281643404</v>
+      </c>
+      <c r="K76">
+        <v>0.01268362262873558</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09037849234389814</v>
+        <v>-0.07481544963809959</v>
       </c>
       <c r="C77">
-        <v>0.01004057340739014</v>
+        <v>0.03900307022973537</v>
       </c>
       <c r="D77">
-        <v>-0.04360489449062374</v>
+        <v>0.03120578513988551</v>
       </c>
       <c r="E77">
-        <v>-0.05651515268121617</v>
+        <v>0.01305732474360368</v>
       </c>
       <c r="F77">
-        <v>-0.1485881132434446</v>
+        <v>0.03290598129483773</v>
       </c>
       <c r="G77">
-        <v>0.1964135812471058</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09113147875242747</v>
+      </c>
+      <c r="H77">
+        <v>0.2130785721539264</v>
+      </c>
+      <c r="I77">
+        <v>0.1610598126848779</v>
+      </c>
+      <c r="J77">
+        <v>0.03748802771859863</v>
+      </c>
+      <c r="K77">
+        <v>0.2176007418884941</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2167635247928253</v>
+        <v>-0.1517087277903342</v>
       </c>
       <c r="C78">
-        <v>-0.07699020661022102</v>
+        <v>0.08339056403489399</v>
       </c>
       <c r="D78">
-        <v>-0.06382940161405726</v>
+        <v>-0.1174777292122244</v>
       </c>
       <c r="E78">
-        <v>-0.1818049274711708</v>
+        <v>-0.2086345845982646</v>
       </c>
       <c r="F78">
-        <v>0.0309200601375176</v>
+        <v>0.1394561772359389</v>
       </c>
       <c r="G78">
-        <v>0.1329209176769302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.6030758357617196</v>
+      </c>
+      <c r="H78">
+        <v>0.6268247673236699</v>
+      </c>
+      <c r="I78">
+        <v>-0.2176227224090496</v>
+      </c>
+      <c r="J78">
+        <v>-0.07204782450232902</v>
+      </c>
+      <c r="K78">
+        <v>0.02909811668619092</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1358557930826177</v>
+        <v>-0.1373788517371141</v>
       </c>
       <c r="C79">
-        <v>-0.01272430539592473</v>
+        <v>0.04516012997504038</v>
       </c>
       <c r="D79">
-        <v>0.001790698213984665</v>
+        <v>0.008680536732645686</v>
       </c>
       <c r="E79">
-        <v>0.01903818723757379</v>
+        <v>0.01314820596059198</v>
       </c>
       <c r="F79">
-        <v>0.1584989072031295</v>
+        <v>-0.001154849876373349</v>
       </c>
       <c r="G79">
-        <v>-0.01527515058883005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.03602057470771095</v>
+      </c>
+      <c r="H79">
+        <v>-0.06076843401682892</v>
+      </c>
+      <c r="I79">
+        <v>-0.1521921737404714</v>
+      </c>
+      <c r="J79">
+        <v>0.06897246762084458</v>
+      </c>
+      <c r="K79">
+        <v>0.06508908995607912</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03429405736270828</v>
+        <v>-0.06240416551821206</v>
       </c>
       <c r="C80">
-        <v>-0.009153656679222279</v>
+        <v>0.0431055340107257</v>
       </c>
       <c r="D80">
-        <v>-0.01909656658437086</v>
+        <v>-0.03548251194289148</v>
       </c>
       <c r="E80">
-        <v>0.02748839049502894</v>
+        <v>0.05863951244535025</v>
       </c>
       <c r="F80">
-        <v>-0.0165241608093013</v>
+        <v>-0.007035614650076057</v>
       </c>
       <c r="G80">
-        <v>0.06292046790748118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03317302022939118</v>
+      </c>
+      <c r="H80">
+        <v>0.07566350331559453</v>
+      </c>
+      <c r="I80">
+        <v>-0.01531856725812907</v>
+      </c>
+      <c r="J80">
+        <v>0.03613011456627702</v>
+      </c>
+      <c r="K80">
+        <v>-0.1704106447752828</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1090796019194595</v>
+        <v>-0.1326159010157374</v>
       </c>
       <c r="C81">
-        <v>-0.008170549584116813</v>
+        <v>0.04992833593132296</v>
       </c>
       <c r="D81">
-        <v>-0.01040010262396266</v>
+        <v>-0.006517216006704854</v>
       </c>
       <c r="E81">
-        <v>0.01538928853053638</v>
+        <v>0.01331386893556588</v>
       </c>
       <c r="F81">
-        <v>0.1356687726345042</v>
+        <v>0.01190004836067616</v>
       </c>
       <c r="G81">
-        <v>-0.04694862056699416</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.04921687413268201</v>
+      </c>
+      <c r="H81">
+        <v>-0.03797723474789912</v>
+      </c>
+      <c r="I81">
+        <v>-0.1495881439079794</v>
+      </c>
+      <c r="J81">
+        <v>0.03471556593080875</v>
+      </c>
+      <c r="K81">
+        <v>0.0141012957945853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1076728346819786</v>
+        <v>-0.1453869498756219</v>
       </c>
       <c r="C82">
-        <v>-0.0310585002069242</v>
+        <v>0.04267000299388279</v>
       </c>
       <c r="D82">
-        <v>-0.05639057562186204</v>
+        <v>-0.003567461151151175</v>
       </c>
       <c r="E82">
-        <v>0.0541997408411775</v>
+        <v>0.06418735646614528</v>
       </c>
       <c r="F82">
-        <v>0.2226054432551934</v>
+        <v>0.002545917292420937</v>
       </c>
       <c r="G82">
-        <v>-0.01642019706978975</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.04844644301231315</v>
+      </c>
+      <c r="H82">
+        <v>-0.1232516575673782</v>
+      </c>
+      <c r="I82">
+        <v>-0.2688328910512592</v>
+      </c>
+      <c r="J82">
+        <v>0.01705763647328381</v>
+      </c>
+      <c r="K82">
+        <v>-0.0325573840018779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1045791584337892</v>
+        <v>-0.09393496532346465</v>
       </c>
       <c r="C83">
-        <v>-0.06062143632432335</v>
+        <v>0.09848798798350331</v>
       </c>
       <c r="D83">
-        <v>-0.05511777521337797</v>
+        <v>0.01151680586664896</v>
       </c>
       <c r="E83">
-        <v>0.02094327696136384</v>
+        <v>0.003001051684102855</v>
       </c>
       <c r="F83">
-        <v>-0.07780642887971802</v>
+        <v>0.01329686368657455</v>
       </c>
       <c r="G83">
-        <v>0.08345800452310172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05031339950083919</v>
+      </c>
+      <c r="H83">
+        <v>0.079882415745146</v>
+      </c>
+      <c r="I83">
+        <v>0.03387878791731867</v>
+      </c>
+      <c r="J83">
+        <v>0.1460528070744564</v>
+      </c>
+      <c r="K83">
+        <v>-0.1152516537204165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.04893441995366323</v>
+        <v>-0.05698802719102225</v>
       </c>
       <c r="C84">
-        <v>-0.02022086133250436</v>
+        <v>-0.003713808894812343</v>
       </c>
       <c r="D84">
-        <v>0.04833172220910104</v>
+        <v>0.03416974281029079</v>
       </c>
       <c r="E84">
-        <v>-0.02633663348180807</v>
+        <v>0.02693944664815488</v>
       </c>
       <c r="F84">
-        <v>0.02305348093336873</v>
+        <v>-0.01361291893669488</v>
       </c>
       <c r="G84">
-        <v>-0.03769578112966568</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.02107198334076322</v>
+      </c>
+      <c r="H84">
+        <v>0.01146471450370673</v>
+      </c>
+      <c r="I84">
+        <v>0.06379847046324348</v>
+      </c>
+      <c r="J84">
+        <v>-0.3631549050133538</v>
+      </c>
+      <c r="K84">
+        <v>-0.1493349402958418</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1001992190061817</v>
+        <v>-0.1187831480030485</v>
       </c>
       <c r="C85">
-        <v>-0.02127250462593298</v>
+        <v>0.03633469536552537</v>
       </c>
       <c r="D85">
-        <v>-0.02229733165940493</v>
+        <v>0.003346948095790924</v>
       </c>
       <c r="E85">
-        <v>0.02196149780569023</v>
+        <v>0.03226273635043116</v>
       </c>
       <c r="F85">
-        <v>0.1902817125160315</v>
+        <v>0.01845457416858902</v>
       </c>
       <c r="G85">
-        <v>-0.02870345082081058</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.0333859220706195</v>
+      </c>
+      <c r="H85">
+        <v>-0.04166294247128315</v>
+      </c>
+      <c r="I85">
+        <v>-0.1908708591663666</v>
+      </c>
+      <c r="J85">
+        <v>0.06392427848047967</v>
+      </c>
+      <c r="K85">
+        <v>0.05270982371818835</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06895809289960207</v>
+        <v>-0.1320015448539004</v>
       </c>
       <c r="C86">
-        <v>-0.02010801468957787</v>
+        <v>0.04691607292401079</v>
       </c>
       <c r="D86">
-        <v>-0.05274951918686204</v>
+        <v>0.918364881113424</v>
       </c>
       <c r="E86">
-        <v>-0.05666566918626136</v>
+        <v>-0.2592529714430218</v>
       </c>
       <c r="F86">
-        <v>-0.003338791812446171</v>
+        <v>-0.09174467602666286</v>
       </c>
       <c r="G86">
-        <v>0.1019601899572774</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.02738425892518162</v>
+      </c>
+      <c r="H86">
+        <v>0.06646790721147378</v>
+      </c>
+      <c r="I86">
+        <v>-0.05620685292545265</v>
+      </c>
+      <c r="J86">
+        <v>-0.05069556258714536</v>
+      </c>
+      <c r="K86">
+        <v>-0.05267650779249521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.103842802878824</v>
+        <v>-0.1203449272648547</v>
       </c>
       <c r="C87">
-        <v>-0.05773961240710526</v>
+        <v>0.1001975545466536</v>
       </c>
       <c r="D87">
-        <v>-0.01861042355600605</v>
+        <v>0.01297799317392733</v>
       </c>
       <c r="E87">
-        <v>-0.06133594485975127</v>
+        <v>0.01580731009257817</v>
       </c>
       <c r="F87">
-        <v>-0.02123260395276239</v>
+        <v>0.0241148661111977</v>
       </c>
       <c r="G87">
-        <v>0.1076376667392832</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08173488147362813</v>
+      </c>
+      <c r="H87">
+        <v>0.118215263899015</v>
+      </c>
+      <c r="I87">
+        <v>0.1295442348969769</v>
+      </c>
+      <c r="J87">
+        <v>0.07553070539397194</v>
+      </c>
+      <c r="K87">
+        <v>0.03936195989014976</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06837360197574789</v>
+        <v>-0.05808822244891511</v>
       </c>
       <c r="C88">
-        <v>-0.03817568552554911</v>
+        <v>0.04098160399761017</v>
       </c>
       <c r="D88">
-        <v>-0.0206845652450752</v>
+        <v>-0.01494904604998568</v>
       </c>
       <c r="E88">
-        <v>-0.01111313931091287</v>
+        <v>0.04805337264844304</v>
       </c>
       <c r="F88">
-        <v>0.005873296442829456</v>
+        <v>-0.0162847764230009</v>
       </c>
       <c r="G88">
-        <v>0.0608822304929817</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02364812075482679</v>
+      </c>
+      <c r="H88">
+        <v>0.01798395510045737</v>
+      </c>
+      <c r="I88">
+        <v>0.004392044413856277</v>
+      </c>
+      <c r="J88">
+        <v>-0.002749440785538412</v>
+      </c>
+      <c r="K88">
+        <v>-0.01485293417849001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09589590364551638</v>
+        <v>-0.1557886647796208</v>
       </c>
       <c r="C89">
-        <v>0.3694990320245877</v>
+        <v>-0.3721851401817039</v>
       </c>
       <c r="D89">
-        <v>-0.1156489291315463</v>
+        <v>-0.003926702333778217</v>
       </c>
       <c r="E89">
-        <v>-0.01653031691868728</v>
+        <v>0.004681077473192815</v>
       </c>
       <c r="F89">
-        <v>-0.05677610438999078</v>
+        <v>0.06856012335651467</v>
       </c>
       <c r="G89">
-        <v>0.01041755003935396</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0005017047716659822</v>
+      </c>
+      <c r="H89">
+        <v>0.04638964979252747</v>
+      </c>
+      <c r="I89">
+        <v>0.01714713300637272</v>
+      </c>
+      <c r="J89">
+        <v>-0.01690701093856853</v>
+      </c>
+      <c r="K89">
+        <v>-0.07694454693749267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07721457664020767</v>
+        <v>-0.1205651974273275</v>
       </c>
       <c r="C90">
-        <v>0.2917535705586909</v>
+        <v>-0.2843389688216715</v>
       </c>
       <c r="D90">
-        <v>-0.05400046862371097</v>
+        <v>0.009983865012742805</v>
       </c>
       <c r="E90">
-        <v>-0.04492747377286959</v>
+        <v>0.02744091668514408</v>
       </c>
       <c r="F90">
-        <v>-0.05146948961915773</v>
+        <v>0.004252312219108965</v>
       </c>
       <c r="G90">
-        <v>0.05090151919665603</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04540698638831275</v>
+      </c>
+      <c r="H90">
+        <v>0.03309295910495258</v>
+      </c>
+      <c r="I90">
+        <v>0.05201435189011719</v>
+      </c>
+      <c r="J90">
+        <v>-0.05183098816781515</v>
+      </c>
+      <c r="K90">
+        <v>0.01643978156588573</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08329795690041075</v>
+        <v>-0.08397003242901943</v>
       </c>
       <c r="C91">
-        <v>-0.01951127255560762</v>
+        <v>0.03777856867343697</v>
       </c>
       <c r="D91">
-        <v>-0.004647133563050998</v>
+        <v>0.01454903134850079</v>
       </c>
       <c r="E91">
-        <v>0.01570921006720842</v>
+        <v>0.01155699117635677</v>
       </c>
       <c r="F91">
-        <v>0.07968653518052361</v>
+        <v>0.01456856780690756</v>
       </c>
       <c r="G91">
-        <v>-0.07306049583899563</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.0100180805437504</v>
+      </c>
+      <c r="H91">
+        <v>-0.05046418682473876</v>
+      </c>
+      <c r="I91">
+        <v>-0.1155388382800426</v>
+      </c>
+      <c r="J91">
+        <v>0.04262896732634559</v>
+      </c>
+      <c r="K91">
+        <v>0.01842943132725191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.07297960289289718</v>
+        <v>-0.1295142655307249</v>
       </c>
       <c r="C92">
-        <v>0.3363517540869909</v>
+        <v>-0.3348326000597516</v>
       </c>
       <c r="D92">
-        <v>-0.0779704696142304</v>
+        <v>-0.005159877051575483</v>
       </c>
       <c r="E92">
-        <v>-0.02132339849707824</v>
+        <v>-0.003836029661763053</v>
       </c>
       <c r="F92">
-        <v>-0.03943551412959348</v>
+        <v>0.03999086098257704</v>
       </c>
       <c r="G92">
-        <v>-0.0288024999252495</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0255701353232752</v>
+      </c>
+      <c r="H92">
+        <v>0.06932864720352708</v>
+      </c>
+      <c r="I92">
+        <v>-0.03250253168246103</v>
+      </c>
+      <c r="J92">
+        <v>-0.02133575375559101</v>
+      </c>
+      <c r="K92">
+        <v>-0.004864012352674575</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.08707419940177548</v>
+        <v>-0.124519755096178</v>
       </c>
       <c r="C93">
-        <v>0.2950522212685464</v>
+        <v>-0.3156338705740606</v>
       </c>
       <c r="D93">
-        <v>-0.05576991576436102</v>
+        <v>0.02788032942055193</v>
       </c>
       <c r="E93">
-        <v>-0.01116230388776291</v>
+        <v>0.04676928567789005</v>
       </c>
       <c r="F93">
-        <v>-0.01820483340908585</v>
+        <v>-0.005806331941270007</v>
       </c>
       <c r="G93">
-        <v>-0.01817831664063526</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03791320096361144</v>
+      </c>
+      <c r="H93">
+        <v>0.001250512300557565</v>
+      </c>
+      <c r="I93">
+        <v>0.02126280193276817</v>
+      </c>
+      <c r="J93">
+        <v>-0.01535738774472203</v>
+      </c>
+      <c r="K93">
+        <v>0.0127483144052781</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09266086229563709</v>
+        <v>-0.1266679562264688</v>
       </c>
       <c r="C94">
-        <v>-0.04717130780540715</v>
+        <v>0.05725888818466295</v>
       </c>
       <c r="D94">
-        <v>0.008763746175452034</v>
+        <v>-0.02769179098699931</v>
       </c>
       <c r="E94">
-        <v>0.004636669178609797</v>
+        <v>0.01028542542757347</v>
       </c>
       <c r="F94">
-        <v>0.1205999899694747</v>
+        <v>0.02243380330594619</v>
       </c>
       <c r="G94">
-        <v>-0.07145753762585363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.01105564960724681</v>
+      </c>
+      <c r="H94">
+        <v>-0.0846744587331273</v>
+      </c>
+      <c r="I94">
+        <v>-0.1352752160523334</v>
+      </c>
+      <c r="J94">
+        <v>0.002618117508101388</v>
+      </c>
+      <c r="K94">
+        <v>0.0160800402176501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1380556969485046</v>
+        <v>-0.1197137138109718</v>
       </c>
       <c r="C95">
-        <v>-0.0747577113182889</v>
+        <v>0.05222315367962057</v>
       </c>
       <c r="D95">
-        <v>-0.06506818190901618</v>
+        <v>-0.01228337641896836</v>
       </c>
       <c r="E95">
-        <v>-0.0310592805144564</v>
+        <v>0.01025269569293373</v>
       </c>
       <c r="F95">
-        <v>-0.05427531037833205</v>
+        <v>0.06607699578829962</v>
       </c>
       <c r="G95">
-        <v>0.1022775843919622</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.009124009674125464</v>
+      </c>
+      <c r="H95">
+        <v>0.1269472664293678</v>
+      </c>
+      <c r="I95">
+        <v>0.2123142060294287</v>
+      </c>
+      <c r="J95">
+        <v>0.001056671921114497</v>
+      </c>
+      <c r="K95">
+        <v>-0.20092459696594</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009144195899949456</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.001844026230994368</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0007490186524217113</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.006591092678559616</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.002456439466413025</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.001936684509277744</v>
+      </c>
+      <c r="H96">
+        <v>0.01800302321464785</v>
+      </c>
+      <c r="I96">
+        <v>0.01157190060323826</v>
+      </c>
+      <c r="J96">
+        <v>0.009650240990922623</v>
+      </c>
+      <c r="K96">
+        <v>0.02027823011222853</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2009603361437887</v>
+        <v>-0.1874536253971746</v>
       </c>
       <c r="C97">
-        <v>0.1604107700820247</v>
+        <v>-0.005062317794965988</v>
       </c>
       <c r="D97">
-        <v>0.9003101282821888</v>
+        <v>-0.2663968554831496</v>
       </c>
       <c r="E97">
-        <v>-0.02912551657825271</v>
+        <v>-0.6427522927363486</v>
       </c>
       <c r="F97">
-        <v>-0.04671910973937841</v>
+        <v>-0.641542489693903</v>
       </c>
       <c r="G97">
-        <v>0.04336299048956243</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03087974205916704</v>
+      </c>
+      <c r="H97">
+        <v>-0.1082814304366087</v>
+      </c>
+      <c r="I97">
+        <v>0.06171662688048626</v>
+      </c>
+      <c r="J97">
+        <v>-0.05890659449317932</v>
+      </c>
+      <c r="K97">
+        <v>-0.03222230138299883</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3196914705885919</v>
+        <v>-0.269301733101314</v>
       </c>
       <c r="C98">
-        <v>-0.071120813836171</v>
+        <v>0.05342055637886839</v>
       </c>
       <c r="D98">
-        <v>-0.05208179362902662</v>
+        <v>0.009931477357845492</v>
       </c>
       <c r="E98">
-        <v>0.2456941966525972</v>
+        <v>0.01864903629684892</v>
       </c>
       <c r="F98">
-        <v>-0.2257507662785404</v>
+        <v>0.05185849145356683</v>
       </c>
       <c r="G98">
-        <v>-0.2800586447629623</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2790916215418989</v>
+      </c>
+      <c r="H98">
+        <v>-0.2329930446163183</v>
+      </c>
+      <c r="I98">
+        <v>0.07842823807314449</v>
+      </c>
+      <c r="J98">
+        <v>0.2557027667874868</v>
+      </c>
+      <c r="K98">
+        <v>-0.5498033339884929</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08413601591227475</v>
+        <v>-0.0556396792736903</v>
       </c>
       <c r="C99">
-        <v>-0.0279879907324058</v>
+        <v>0.01021265875066135</v>
       </c>
       <c r="D99">
-        <v>-0.008908562762326953</v>
+        <v>-0.03643300217960352</v>
       </c>
       <c r="E99">
-        <v>0.01715666326124496</v>
+        <v>0.005011775405612801</v>
       </c>
       <c r="F99">
-        <v>0.001581562051128743</v>
+        <v>0.03022021992042773</v>
       </c>
       <c r="G99">
-        <v>0.01358440795570666</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01257925707140266</v>
+      </c>
+      <c r="H99">
+        <v>0.006997422893408201</v>
+      </c>
+      <c r="I99">
+        <v>-0.01595512359830875</v>
+      </c>
+      <c r="J99">
+        <v>-0.0163545034820886</v>
+      </c>
+      <c r="K99">
+        <v>0.01400189618784167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.02133496111104166</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.03919010021968263</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.08609596422822088</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.03678628173653837</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.04641870374744171</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.07578818914296691</v>
+      </c>
+      <c r="H100">
+        <v>-0.009706285348968479</v>
+      </c>
+      <c r="I100">
+        <v>-0.04854687219875356</v>
+      </c>
+      <c r="J100">
+        <v>0.02957791651304324</v>
+      </c>
+      <c r="K100">
+        <v>-0.2236099774861407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05862797464168285</v>
+        <v>-0.04124086109282094</v>
       </c>
       <c r="C101">
-        <v>-0.008977194594747492</v>
+        <v>0.01878345052557075</v>
       </c>
       <c r="D101">
-        <v>-0.02861519303758015</v>
+        <v>-0.004364932824659059</v>
       </c>
       <c r="E101">
-        <v>-0.04329174453940106</v>
+        <v>0.0315727668673028</v>
       </c>
       <c r="F101">
-        <v>0.0349357736522807</v>
+        <v>0.01135674199304118</v>
       </c>
       <c r="G101">
-        <v>0.04003397825489902</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09242495170869851</v>
+      </c>
+      <c r="H101">
+        <v>0.03425696218482718</v>
+      </c>
+      <c r="I101">
+        <v>-0.002157565631485</v>
+      </c>
+      <c r="J101">
+        <v>0.05580421850763768</v>
+      </c>
+      <c r="K101">
+        <v>-0.0470361771787688</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
